--- a/data/database/processed/catch_share_allocation_database.xlsx
+++ b/data/database/processed/catch_share_allocation_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitchel/Dropbox/Repositories/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B81ADD-AD79-8C48-AC32-178C98A901E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BADD9B0-9257-014D-9D02-F35FF75B3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="-4700" windowWidth="39080" windowHeight="25300" activeTab="3" xr2:uid="{BEA37FC0-BBC4-8E48-AF08-CBB5C7F58EA8}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="3" xr2:uid="{BEA37FC0-BBC4-8E48-AF08-CBB5C7F58EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779" uniqueCount="697">
   <si>
     <t>council</t>
   </si>
@@ -2087,20 +2087,74 @@
     <t>3 permits per vessel</t>
   </si>
   <si>
-    <t>historical_processor</t>
-  </si>
-  <si>
     <t>managed by Aleut Corporation</t>
   </si>
   <si>
     <t>decennial applications by CDQ groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>short_program_name</t>
+  </si>
+  <si>
+    <t>BSAI Groundfish Cooperatives (Amendment 80)</t>
+  </si>
+  <si>
+    <t>AI Pollock</t>
+  </si>
+  <si>
+    <t>BS AFA Pollock Cooperative (Inshore)</t>
+  </si>
+  <si>
+    <t>BSAI King and Tanner Crab</t>
+  </si>
+  <si>
+    <t>Central GOA Rockfish</t>
+  </si>
+  <si>
+    <t>IFQ Halibut and Sablefish</t>
+  </si>
+  <si>
+    <t>West Coast Groundfish Trawl (shoreside sector)</t>
+  </si>
+  <si>
+    <t>Historical for individual</t>
+  </si>
+  <si>
+    <t>Historical for processor</t>
+  </si>
+  <si>
+    <t>Recent for individual</t>
+  </si>
+  <si>
+    <t>cap_type_title</t>
+  </si>
+  <si>
+    <t>Individual/vessel use</t>
+  </si>
+  <si>
+    <t>Individual holding</t>
+  </si>
+  <si>
+    <t>Processor holding</t>
+  </si>
+  <si>
+    <t>Cooperative use</t>
+  </si>
+  <si>
+    <t>Crew holding</t>
+  </si>
+  <si>
+    <t>Processor use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2168,6 +2222,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2229,7 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2283,6 +2345,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -31131,194 +31195,219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F2385-3EB2-3C4A-AA72-A31C48A5AC56}">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="31"/>
-    <col min="2" max="2" width="79.5" style="31" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="31"/>
-    <col min="6" max="6" width="11.6640625" style="31" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="31"/>
-    <col min="9" max="9" width="26" style="31" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="31"/>
-    <col min="11" max="11" width="19.6640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="31"/>
-    <col min="13" max="14" width="23.1640625" style="31" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="31"/>
-    <col min="17" max="17" width="10.83203125" style="43"/>
-    <col min="18" max="18" width="25.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="31" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="31"/>
-    <col min="23" max="23" width="21.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5" style="31" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="31"/>
+    <col min="7" max="7" width="11.6640625" style="31" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="31"/>
+    <col min="10" max="10" width="26" style="31" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="31"/>
+    <col min="14" max="14" width="17.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.1640625" style="31" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="31"/>
+    <col min="19" max="19" width="10.83203125" style="43"/>
+    <col min="20" max="20" width="25.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="31" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" style="31" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" style="31" customWidth="1"/>
     <col min="24" max="24" width="10.83203125" style="31"/>
-    <col min="25" max="25" width="26.1640625" style="31" customWidth="1"/>
-    <col min="26" max="26" width="27.1640625" style="31" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="31"/>
-    <col min="30" max="30" width="24.33203125" style="31" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="31"/>
+    <col min="25" max="25" width="21.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="31"/>
+    <col min="27" max="27" width="26.1640625" style="31" customWidth="1"/>
+    <col min="28" max="28" width="27.1640625" style="31" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="31"/>
+    <col min="32" max="32" width="24.33203125" style="31" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="P1" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>665</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="32" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="32" t="s">
         <v>651</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="U1" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="V1" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="W1" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="X1" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="Y1" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Z1" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="AA1" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AB1" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AD1" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AE1" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AF1" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AG1" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AH1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AI1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AK1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AL1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AM1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AN1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AO1" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>670</v>
+      </c>
       <c r="B2" s="33" t="s">
-        <v>597</v>
+        <v>684</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="33" t="s">
-        <v>647</v>
+        <v>241</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="G2" s="33">
-        <v>2005</v>
-      </c>
-      <c r="H2" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33">
+        <v>2007</v>
+      </c>
+      <c r="I2" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="33">
+        <v>2006</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="Q2" s="33">
+        <v>30</v>
+      </c>
+      <c r="R2" s="33">
+        <v>30</v>
+      </c>
+      <c r="S2" s="41"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
@@ -31331,73 +31420,84 @@
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="33"/>
-      <c r="AF2" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>653</v>
+      </c>
       <c r="B3" s="33" t="s">
-        <v>107</v>
+        <v>683</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33">
-        <v>2010</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="33"/>
       <c r="H3" s="33">
+        <v>2005</v>
+      </c>
+      <c r="I3" s="33">
+        <v>1991</v>
+      </c>
+      <c r="J3" s="33">
         <v>2000</v>
       </c>
-      <c r="I3" s="33">
-        <v>2004</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33" t="s">
-        <v>617</v>
-      </c>
+      <c r="K3" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="P3" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33">
+        <v>140</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>2</v>
+      </c>
+      <c r="R3" s="33">
+        <v>2</v>
+      </c>
+      <c r="S3" s="41"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33">
         <v>5</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
@@ -31405,79 +31505,87 @@
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
-      <c r="AD3" s="33">
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33">
         <v>2.5</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AJ3" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33" t="s">
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AK3" s="33" t="s">
+      <c r="AM3" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="33" t="s">
+      <c r="AN3" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="33"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO3" s="33"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33">
         <v>2010</v>
       </c>
-      <c r="H4" s="33">
+      <c r="I4" s="33">
         <v>2000</v>
       </c>
-      <c r="I4" s="33">
+      <c r="J4" s="33">
         <v>2004</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="N4" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O4" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33">
+      <c r="P4" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q4" s="33">
         <v>5</v>
       </c>
-      <c r="P4" s="33">
+      <c r="R4" s="33">
         <v>5</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33">
+      <c r="S4" s="41"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33">
         <v>5</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
@@ -31485,74 +31593,82 @@
       <c r="AA4" s="33"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
-      <c r="AD4" s="33">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33">
         <v>2.5</v>
       </c>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AJ4" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33" t="s">
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AM4" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AL4" s="33" t="s">
+      <c r="AN4" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AM4" s="33"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO4" s="33"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33">
-        <v>1999</v>
-      </c>
+      <c r="F5" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="33">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="I5" s="33">
-        <v>1997</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
-        <v>630</v>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="J5" s="33">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33">
+        <v>606</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q5" s="33">
         <v>30</v>
       </c>
-      <c r="P5" s="33">
+      <c r="R5" s="33">
         <v>30</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
@@ -31573,135 +31689,157 @@
       <c r="AK5" s="33"/>
       <c r="AL5" s="33"/>
       <c r="AM5" s="33"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>653</v>
+      </c>
       <c r="B6" s="33" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="E6" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33">
-        <v>1999</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="33">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="I6" s="33">
-        <v>1997</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33" t="s">
-        <v>630</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="J6" s="33">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L6" s="33"/>
       <c r="M6" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33">
-        <v>17.5</v>
-      </c>
-      <c r="P6" s="33">
-        <v>17.5</v>
-      </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+        <v>140</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>1</v>
+      </c>
+      <c r="R6" s="33">
+        <v>10</v>
+      </c>
+      <c r="S6" s="41"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
       <c r="V6" s="33"/>
-      <c r="W6" s="33">
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33">
         <v>30</v>
       </c>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="33"/>
-      <c r="AD6" s="33">
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33">
         <v>17.5</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH6" s="33" t="s">
+      <c r="AJ6" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33" t="s">
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AM6" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33" t="s">
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>670</v>
+      </c>
       <c r="B7" s="33" t="s">
-        <v>181</v>
+        <v>684</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="E7" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33">
-        <v>2008</v>
-      </c>
+      <c r="G7" s="33"/>
       <c r="H7" s="33">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="I7" s="33">
-        <v>2004</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33" t="s">
-        <v>606</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J7" s="33">
+        <v>2006</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L7" s="33"/>
       <c r="M7" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33">
+      <c r="P7" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>4</v>
+      </c>
+      <c r="R7" s="33">
+        <v>40</v>
+      </c>
+      <c r="S7" s="41"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33">
         <v>30</v>
       </c>
-      <c r="P7" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33">
-        <v>30</v>
-      </c>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
@@ -31709,79 +31847,90 @@
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="33">
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33">
         <v>20</v>
       </c>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="AH7" s="33" t="s">
+      <c r="AJ7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33" t="s">
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AK7" s="33" t="s">
+      <c r="AM7" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="AL7" s="34" t="s">
+      <c r="AN7" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="AM7" s="33"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO7" s="33"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>654</v>
+      </c>
       <c r="B8" s="33" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="E8" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33">
-        <v>2008</v>
-      </c>
+      <c r="G8" s="33"/>
       <c r="H8" s="33">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="I8" s="33">
+        <v>1999</v>
+      </c>
+      <c r="J8" s="33">
         <v>2004</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33" t="s">
-        <v>606</v>
-      </c>
+      <c r="K8" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L8" s="33"/>
       <c r="M8" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33">
-        <v>20</v>
-      </c>
-      <c r="P8" s="33">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33">
+        <v>353</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R8" s="33">
+        <v>14.7</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33">
         <v>30</v>
       </c>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
@@ -31789,826 +31938,884 @@
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
       <c r="AC8" s="33"/>
-      <c r="AD8" s="33">
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33">
         <v>20</v>
       </c>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG8" s="33" t="s">
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="AH8" s="33" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33" t="s">
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AK8" s="33" t="s">
+      <c r="AM8" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="AL8" s="34" t="s">
+      <c r="AN8" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="AM8" s="33"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>653</v>
-      </c>
+      <c r="AO8" s="33"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33">
-        <v>2005</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G9" s="33"/>
       <c r="H9" s="33">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="I9" s="33">
-        <v>2000</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
-        <v>140</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="J9" s="33">
+        <v>2012</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L9" s="33"/>
       <c r="M9" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33">
-        <v>1</v>
-      </c>
-      <c r="P9" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>25</v>
+      </c>
       <c r="R9" s="33">
-        <v>1</v>
-      </c>
-      <c r="S9" s="33">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="S9" s="41"/>
       <c r="T9" s="33">
         <v>1</v>
       </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
+      <c r="U9" s="33">
+        <v>10</v>
+      </c>
+      <c r="V9" s="33">
+        <v>1</v>
+      </c>
       <c r="W9" s="33"/>
-      <c r="X9" s="33">
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2</v>
       </c>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
-      <c r="AB9" s="33">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
       <c r="AD9" s="33">
         <v>2</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG9" s="33" t="s">
+      <c r="AE9" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AJ9" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI9" s="33" t="s">
+      <c r="AK9" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AJ9" s="33" t="s">
+      <c r="AL9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AK9" s="33" t="s">
+      <c r="AM9" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="AL9" s="33" t="s">
+      <c r="AN9" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AM9" s="33" t="s">
+      <c r="AO9" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>134</v>
+        <v>685</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="E10" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33">
-        <v>2005</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G10" s="33"/>
       <c r="H10" s="33">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="I10" s="33">
-        <v>2000</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33" t="s">
-        <v>140</v>
-      </c>
+        <v>1984</v>
+      </c>
+      <c r="J10" s="33">
+        <v>1990</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L10" s="33"/>
       <c r="M10" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33">
-        <v>2</v>
-      </c>
-      <c r="P10" s="33">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="41"/>
+        <v>236</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>1</v>
+      </c>
       <c r="R10" s="33">
         <v>1</v>
       </c>
-      <c r="S10" s="33">
-        <v>10</v>
-      </c>
+      <c r="S10" s="41"/>
       <c r="T10" s="33">
         <v>1</v>
       </c>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
+      <c r="U10" s="33">
+        <v>10</v>
+      </c>
+      <c r="V10" s="33">
+        <v>1</v>
+      </c>
       <c r="W10" s="33"/>
-      <c r="X10" s="33">
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33">
         <v>2</v>
       </c>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
-      <c r="AB10" s="33">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
       <c r="AD10" s="33">
         <v>2</v>
       </c>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG10" s="33" t="s">
+      <c r="AE10" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AH10" s="33" t="s">
+      <c r="AJ10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AK10" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="33" t="s">
+      <c r="AL10" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="33" t="s">
+      <c r="AM10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="33" t="s">
+      <c r="AN10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="33" t="s">
+      <c r="AO10" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>134</v>
+        <v>599</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="E11" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <v>2005</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G11" s="33"/>
       <c r="H11" s="33">
-        <v>1991</v>
+        <v>2024</v>
       </c>
       <c r="I11" s="33">
-        <v>2000</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33">
-        <v>60</v>
-      </c>
-      <c r="P11" s="33">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="41"/>
+        <v>2009</v>
+      </c>
+      <c r="J11" s="33">
+        <v>2019</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>5</v>
+      </c>
       <c r="R11" s="33">
-        <v>1</v>
-      </c>
-      <c r="S11" s="33">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" s="41"/>
       <c r="T11" s="33">
         <v>1</v>
       </c>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
+      <c r="U11" s="33">
+        <v>10</v>
+      </c>
+      <c r="V11" s="33">
+        <v>1</v>
+      </c>
       <c r="W11" s="33"/>
-      <c r="X11" s="33">
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33">
         <v>2</v>
       </c>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
-      <c r="AB11" s="33">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
       <c r="AD11" s="33">
         <v>2</v>
       </c>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG11" s="33" t="s">
+      <c r="AE11" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AH11" s="33" t="s">
+      <c r="AJ11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI11" s="33" t="s">
+      <c r="AK11" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AJ11" s="33" t="s">
+      <c r="AL11" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AK11" s="33" t="s">
+      <c r="AM11" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="AL11" s="33" t="s">
+      <c r="AN11" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AM11" s="33" t="s">
+      <c r="AO11" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>653</v>
-      </c>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33">
+        <v>337</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33">
+        <v>2007</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1990</v>
+      </c>
+      <c r="J12" s="33">
         <v>2005</v>
       </c>
-      <c r="H12" s="33">
-        <v>1991</v>
-      </c>
-      <c r="I12" s="33">
-        <v>2000</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33" t="s">
-        <v>140</v>
-      </c>
+      <c r="K12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L12" s="33"/>
       <c r="M12" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33">
-        <v>2</v>
-      </c>
-      <c r="P12" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="41"/>
+        <v>345</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>6</v>
+      </c>
       <c r="R12" s="33">
-        <v>1</v>
-      </c>
-      <c r="S12" s="33">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="S12" s="41"/>
       <c r="T12" s="33">
         <v>1</v>
       </c>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
+      <c r="U12" s="33">
+        <v>10</v>
+      </c>
+      <c r="V12" s="33">
+        <v>1</v>
+      </c>
       <c r="W12" s="33"/>
-      <c r="X12" s="33">
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33">
         <v>2</v>
       </c>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
-      <c r="AB12" s="33">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
       <c r="AD12" s="33">
         <v>2</v>
       </c>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG12" s="33" t="s">
+      <c r="AE12" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AH12" s="33" t="s">
+      <c r="AJ12" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI12" s="33" t="s">
+      <c r="AK12" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AJ12" s="33" t="s">
+      <c r="AL12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AK12" s="33" t="s">
+      <c r="AM12" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="AL12" s="33" t="s">
+      <c r="AN12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AM12" s="33" t="s">
+      <c r="AO12" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="E13" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33">
-        <v>2007</v>
-      </c>
+      <c r="G13" s="33"/>
       <c r="H13" s="33">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="I13" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33" t="s">
-        <v>248</v>
-      </c>
+        <v>1979</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1988</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L13" s="33"/>
       <c r="M13" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O13" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33">
+      <c r="P13" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>35</v>
+      </c>
+      <c r="R13" s="33">
+        <v>40</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33">
         <v>4</v>
       </c>
-      <c r="P13" s="33">
+      <c r="W13" s="33">
         <v>40</v>
-      </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33">
-        <v>4</v>
-      </c>
-      <c r="U13" s="33">
-        <v>40</v>
-      </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33">
-        <v>30</v>
       </c>
       <c r="X13" s="33"/>
       <c r="Y13" s="33">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33">
         <v>60</v>
       </c>
-      <c r="Z13" s="33">
+      <c r="AB13" s="33">
         <v>30</v>
       </c>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="33">
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33">
         <v>8</v>
       </c>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33" t="s">
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="AG13" s="33" t="s">
+      <c r="AI13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH13" s="33" t="s">
+      <c r="AJ13" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI13" s="33" t="s">
+      <c r="AK13" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="AJ13" s="33" t="s">
+      <c r="AL13" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="AK13" s="33" t="s">
+      <c r="AM13" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>252</v>
+        <v>686</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>75</v>
+        <v>640</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33">
-        <v>2007</v>
-      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="33">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="I14" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33" t="s">
-        <v>248</v>
-      </c>
+        <v>1994</v>
+      </c>
+      <c r="J14" s="33">
+        <v>2003</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L14" s="33"/>
       <c r="M14" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33">
-        <v>30</v>
-      </c>
-      <c r="P14" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33">
+        <v>418</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="R14" s="33">
+        <v>17.7</v>
+      </c>
+      <c r="S14" s="41"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33">
         <v>4</v>
       </c>
-      <c r="U14" s="33">
+      <c r="W14" s="33">
         <v>40</v>
-      </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33">
-        <v>30</v>
       </c>
       <c r="X14" s="33"/>
       <c r="Y14" s="33">
+        <v>30</v>
+      </c>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33">
         <v>60</v>
       </c>
-      <c r="Z14" s="33">
+      <c r="AB14" s="33">
         <v>30</v>
       </c>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
       <c r="AC14" s="33"/>
-      <c r="AD14" s="33">
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33">
         <v>8</v>
       </c>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33" t="s">
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="AG14" s="33" t="s">
+      <c r="AI14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH14" s="33" t="s">
+      <c r="AJ14" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI14" s="33" t="s">
+      <c r="AK14" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="AJ14" s="33" t="s">
+      <c r="AL14" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="AK14" s="33" t="s">
+      <c r="AM14" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>670</v>
-      </c>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>241</v>
+        <v>391</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33">
-        <v>2007</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G15" s="33"/>
       <c r="H15" s="33">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="I15" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33" t="s">
-        <v>248</v>
-      </c>
+        <v>1987</v>
+      </c>
+      <c r="J15" s="33">
+        <v>1990</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="L15" s="33"/>
       <c r="M15" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33">
-        <v>8</v>
-      </c>
-      <c r="P15" s="33">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33">
+        <v>603</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>49</v>
+      </c>
+      <c r="R15" s="33">
+        <v>49</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33">
         <v>4</v>
       </c>
-      <c r="U15" s="33">
+      <c r="W15" s="33">
         <v>40</v>
-      </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33">
-        <v>30</v>
       </c>
       <c r="X15" s="33"/>
       <c r="Y15" s="33">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33">
         <v>60</v>
       </c>
-      <c r="Z15" s="33">
+      <c r="AB15" s="33">
         <v>30</v>
       </c>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
-      <c r="AD15" s="33">
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33">
         <v>8</v>
       </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33" t="s">
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="AG15" s="33" t="s">
+      <c r="AI15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH15" s="33" t="s">
+      <c r="AJ15" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI15" s="33" t="s">
+      <c r="AK15" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="AJ15" s="33" t="s">
+      <c r="AL15" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="AK15" s="33" t="s">
+      <c r="AM15" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>670</v>
-      </c>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33">
-        <v>2007</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G16" s="33"/>
       <c r="H16" s="33">
+        <v>2010</v>
+      </c>
+      <c r="I16" s="33">
         <v>2000</v>
       </c>
-      <c r="I16" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33" t="s">
-        <v>248</v>
-      </c>
+      <c r="J16" s="33">
+        <v>2004</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L16" s="33"/>
       <c r="M16" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33">
-        <v>30</v>
-      </c>
-      <c r="P16" s="33">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33">
+        <v>617</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="R16" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33">
         <v>4</v>
       </c>
-      <c r="U16" s="33">
+      <c r="W16" s="33">
         <v>40</v>
-      </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33">
-        <v>30</v>
       </c>
       <c r="X16" s="33"/>
       <c r="Y16" s="33">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33">
         <v>60</v>
       </c>
-      <c r="Z16" s="33">
+      <c r="AB16" s="33">
         <v>30</v>
       </c>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
-      <c r="AD16" s="33">
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33">
         <v>8</v>
       </c>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33" t="s">
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="AG16" s="33" t="s">
+      <c r="AI16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH16" s="33" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI16" s="33" t="s">
+      <c r="AK16" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="AL16" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="AK16" s="33" t="s">
+      <c r="AM16" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
-        <v>410</v>
+        <v>682</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33">
-        <v>2009</v>
-      </c>
+      <c r="G17" s="33"/>
       <c r="H17" s="33">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I17" s="33">
-        <v>2005</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33" t="s">
-        <v>409</v>
-      </c>
+        <v>1995</v>
+      </c>
+      <c r="J17" s="33">
+        <v>1997</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L17" s="33"/>
       <c r="M17" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O17" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33">
-        <v>49</v>
-      </c>
-      <c r="P17" s="33">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="P17" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>17.5</v>
+      </c>
+      <c r="R17" s="33">
+        <v>17.5</v>
+      </c>
+      <c r="S17" s="41"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
       <c r="V17" s="33"/>
@@ -32620,87 +32827,92 @@
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
-      <c r="AE17" s="35">
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="35">
         <v>49</v>
       </c>
-      <c r="AF17" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG17" s="33" t="s">
+      <c r="AH17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI17" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH17" s="33" t="s">
+      <c r="AJ17" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AI17" s="33" t="s">
+      <c r="AK17" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AJ17" s="33" t="s">
+      <c r="AL17" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="AK17" s="33" t="s">
+      <c r="AM17" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="AL17" s="33" t="s">
+      <c r="AN17" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="AM17" s="33"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>654</v>
-      </c>
+      <c r="AO17" s="33"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>354</v>
+        <v>680</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
-        <v>2010</v>
-      </c>
+      <c r="G18" s="33"/>
       <c r="H18" s="33">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="I18" s="33">
+        <v>1998</v>
+      </c>
+      <c r="J18" s="33">
         <v>2004</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33" t="s">
-        <v>353</v>
-      </c>
+      <c r="K18" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O18" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P18" s="33">
-        <v>14.7</v>
-      </c>
-      <c r="Q18" s="41"/>
+      <c r="P18" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>20</v>
+      </c>
       <c r="R18" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S18" s="33">
-        <v>14.7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S18" s="41"/>
       <c r="T18" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
+      <c r="U18" s="33">
+        <v>14.7</v>
+      </c>
+      <c r="V18" s="33">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
@@ -32709,85 +32921,93 @@
       <c r="AB18" s="33"/>
       <c r="AC18" s="33"/>
       <c r="AD18" s="33"/>
-      <c r="AE18" s="33" t="s">
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="AF18" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AH18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI18" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH18" s="33" t="s">
+      <c r="AJ18" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33" t="s">
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="AK18" s="33" t="s">
+      <c r="AM18" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AL18" s="33" t="s">
+      <c r="AN18" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="AM18" s="33"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO18" s="33"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>354</v>
+        <v>683</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33">
-        <v>2010</v>
-      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="33">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="I19" s="33">
-        <v>2004</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33" t="s">
-        <v>353</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="J19" s="33">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L19" s="33"/>
       <c r="M19" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P19" s="33">
-        <v>14.7</v>
-      </c>
-      <c r="Q19" s="41"/>
+        <v>140</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>2</v>
+      </c>
       <c r="R19" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S19" s="33">
-        <v>14.7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S19" s="41"/>
       <c r="T19" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
+      <c r="U19" s="33">
+        <v>14.7</v>
+      </c>
+      <c r="V19" s="33">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
@@ -32796,78 +33016,89 @@
       <c r="AB19" s="33"/>
       <c r="AC19" s="33"/>
       <c r="AD19" s="33"/>
-      <c r="AE19" s="33" t="s">
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="AF19" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG19" s="33" t="s">
+      <c r="AH19" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI19" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH19" s="33" t="s">
+      <c r="AJ19" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33" t="s">
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="AK19" s="33" t="s">
+      <c r="AM19" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AL19" s="33" t="s">
+      <c r="AN19" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="AM19" s="33"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO19" s="33"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>670</v>
+      </c>
       <c r="B20" s="33" t="s">
-        <v>168</v>
+        <v>684</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33">
-        <v>2015</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="33">
+        <v>2007</v>
+      </c>
+      <c r="I20" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="33">
         <v>2006</v>
       </c>
-      <c r="I20" s="33">
-        <v>2012</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="K20" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L20" s="33"/>
       <c r="M20" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33">
+        <v>248</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>8</v>
+      </c>
+      <c r="R20" s="33">
+        <v>8</v>
+      </c>
+      <c r="S20" s="41"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33">
         <v>25</v>
       </c>
-      <c r="P20" s="33">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33">
-        <v>25</v>
-      </c>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
@@ -32876,82 +33107,90 @@
       <c r="AB20" s="33"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
-      <c r="AE20" s="33">
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33">
         <v>25</v>
       </c>
-      <c r="AF20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG20" s="33" t="s">
+      <c r="AH20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH20" s="36" t="s">
+      <c r="AJ20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="AI20" s="33" t="s">
+      <c r="AK20" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="AJ20" s="33" t="s">
+      <c r="AL20" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="AK20" s="33" t="s">
+      <c r="AM20" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AL20" s="33" t="s">
+      <c r="AN20" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="AM20" s="33" t="s">
+      <c r="AO20" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="E21" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33">
-        <v>2015</v>
-      </c>
+      <c r="G21" s="33"/>
       <c r="H21" s="33">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="I21" s="33">
-        <v>2012</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33" t="s">
-        <v>164</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="J21" s="33">
+        <v>2005</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L21" s="33"/>
       <c r="M21" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O21" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33">
+      <c r="P21" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>49</v>
+      </c>
+      <c r="R21" s="33">
+        <v>49</v>
+      </c>
+      <c r="S21" s="41"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33">
         <v>25</v>
       </c>
-      <c r="P21" s="33">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33">
-        <v>25</v>
-      </c>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
@@ -32960,250 +33199,275 @@
       <c r="AB21" s="33"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
-      <c r="AE21" s="33">
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33">
         <v>25</v>
       </c>
-      <c r="AF21" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG21" s="33" t="s">
+      <c r="AH21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH21" s="36" t="s">
+      <c r="AJ21" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="AI21" s="33" t="s">
+      <c r="AK21" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="AJ21" s="33" t="s">
+      <c r="AL21" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="AK21" s="33" t="s">
+      <c r="AM21" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="AL21" s="33" t="s">
+      <c r="AN21" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="AM21" s="33" t="s">
+      <c r="AO21" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>598</v>
+        <v>354</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33">
-        <v>1995</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G22" s="33"/>
       <c r="H22" s="33">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="I22" s="33">
-        <v>1990</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33" t="s">
-        <v>236</v>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="J22" s="33">
+        <v>2004</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L22" s="33"/>
       <c r="M22" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33">
-        <v>1</v>
-      </c>
-      <c r="P22" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="35">
-        <v>1</v>
-      </c>
-      <c r="U22" s="35"/>
+        <v>353</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R22" s="33">
+        <v>14.7</v>
+      </c>
+      <c r="S22" s="41"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="35">
         <v>1</v>
       </c>
       <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="X22" s="35">
+        <v>1</v>
+      </c>
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
-      <c r="AD22" s="35">
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35">
         <v>1</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AG22" s="35">
         <v>1</v>
       </c>
-      <c r="AF22" s="33" t="s">
+      <c r="AH22" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="AG22" s="33" t="s">
+      <c r="AI22" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="AH22" s="33" t="s">
+      <c r="AJ22" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI22" s="33" t="s">
+      <c r="AK22" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="AJ22" s="33" t="s">
+      <c r="AL22" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="AK22" s="33" t="s">
+      <c r="AM22" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>657</v>
-      </c>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
-        <v>598</v>
+        <v>168</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33">
-        <v>1995</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G23" s="33"/>
       <c r="H23" s="33">
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="I23" s="33">
-        <v>1990</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33" t="s">
-        <v>236</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="J23" s="33">
+        <v>2012</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L23" s="33"/>
       <c r="M23" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O23" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33">
-        <v>1</v>
-      </c>
-      <c r="P23" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="35">
-        <v>1</v>
-      </c>
-      <c r="U23" s="35"/>
+      <c r="P23" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>25</v>
+      </c>
+      <c r="R23" s="33">
+        <v>25</v>
+      </c>
+      <c r="S23" s="41"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="35">
         <v>1</v>
       </c>
       <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="X23" s="35">
+        <v>1</v>
+      </c>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
-      <c r="AD23" s="35">
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35">
         <v>1</v>
       </c>
-      <c r="AE23" s="35">
+      <c r="AG23" s="35">
         <v>1</v>
       </c>
-      <c r="AF23" s="33" t="s">
+      <c r="AH23" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="AG23" s="33" t="s">
+      <c r="AI23" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="AH23" s="33" t="s">
+      <c r="AJ23" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="AI23" s="33" t="s">
+      <c r="AK23" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="AJ23" s="33" t="s">
+      <c r="AL23" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="AK23" s="33" t="s">
+      <c r="AM23" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>290</v>
+        <v>685</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>92</v>
+        <v>598</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33">
-        <v>2010</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G24" s="33"/>
       <c r="H24" s="33">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I24" s="33">
-        <v>2006</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33" t="s">
-        <v>298</v>
-      </c>
+        <v>1984</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1990</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L24" s="33"/>
       <c r="M24" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P24" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="Q24" s="33">
+        <v>1</v>
+      </c>
+      <c r="R24" s="33">
+        <v>1</v>
+      </c>
+      <c r="S24" s="41"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
@@ -33215,33 +33479,35 @@
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
       <c r="AD24" s="33"/>
-      <c r="AE24" s="33" t="s">
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="AF24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG24" s="33" t="s">
+      <c r="AH24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI24" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="AH24" s="33" t="s">
+      <c r="AJ24" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AI24" s="33" t="s">
+      <c r="AK24" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="AL24" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="AK24" s="33" t="s">
+      <c r="AM24" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AL24" s="33" t="s">
+      <c r="AN24" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="AM24" s="33"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO24" s="33"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>658</v>
       </c>
@@ -33249,386 +33515,422 @@
         <v>599</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="E25" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="F25" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33">
         <v>2024</v>
       </c>
-      <c r="H25" s="33">
+      <c r="I25" s="33">
         <v>2009</v>
       </c>
-      <c r="I25" s="33">
+      <c r="J25" s="33">
         <v>2019</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="33"/>
+      <c r="K25" s="33" t="s">
+        <v>687</v>
+      </c>
       <c r="L25" s="33"/>
-      <c r="M25" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q25" s="33">
         <v>5</v>
       </c>
-      <c r="P25" s="33">
+      <c r="R25" s="33">
         <v>5</v>
       </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33">
+      <c r="S25" s="41"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33">
         <v>5</v>
       </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33">
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33">
         <v>20</v>
       </c>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
-      <c r="AA25" s="33">
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33">
         <v>20</v>
       </c>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33">
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33">
         <v>5</v>
       </c>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG25" s="33" t="s">
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI25" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AH25" s="33" t="s">
+      <c r="AJ25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33" t="s">
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="34" t="s">
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="AM25" s="33" t="s">
+      <c r="AO25" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>599</v>
+        <v>120</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33">
-        <v>2024</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G26" s="33"/>
       <c r="H26" s="33">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="I26" s="33">
-        <v>2019</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="33"/>
+        <v>1979</v>
+      </c>
+      <c r="J26" s="33">
+        <v>1988</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>687</v>
+      </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O26" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33">
+      <c r="P26" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33">
         <v>5</v>
       </c>
-      <c r="P26" s="33">
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33">
+        <v>20</v>
+      </c>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33">
         <v>5</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33">
-        <v>5</v>
-      </c>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33">
-        <v>20</v>
-      </c>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33">
-        <v>20</v>
-      </c>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG26" s="33" t="s">
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI26" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AH26" s="33" t="s">
+      <c r="AJ26" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33" t="s">
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="34" t="s">
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="AM26" s="33" t="s">
+      <c r="AO26" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
-        <v>2024</v>
-      </c>
+      <c r="G27" s="33"/>
       <c r="H27" s="33">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="I27" s="33">
-        <v>2019</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="33"/>
+        <v>1984</v>
+      </c>
+      <c r="J27" s="33">
+        <v>1994</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>687</v>
+      </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33">
+        <v>611</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33">
+        <v>5</v>
+      </c>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33">
         <v>20</v>
       </c>
-      <c r="P27" s="33">
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33">
         <v>20</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33">
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33">
         <v>5</v>
       </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33">
-        <v>20</v>
-      </c>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33">
-        <v>20</v>
-      </c>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG27" s="33" t="s">
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI27" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AH27" s="33" t="s">
+      <c r="AJ27" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33" t="s">
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="34" t="s">
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="AM27" s="33" t="s">
+      <c r="AO27" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>599</v>
+        <v>686</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>75</v>
+        <v>640</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33">
-        <v>2024</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="33">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="I28" s="33">
-        <v>2019</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="33"/>
+        <v>1994</v>
+      </c>
+      <c r="J28" s="33">
+        <v>2003</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>687</v>
+      </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33" t="s">
-        <v>672</v>
-      </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33">
+        <v>418</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="R28" s="33">
         <v>20</v>
       </c>
-      <c r="P28" s="33">
+      <c r="S28" s="41"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33">
+        <v>5</v>
+      </c>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33">
         <v>20</v>
       </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33">
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33">
         <v>5</v>
       </c>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33">
-        <v>20</v>
-      </c>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33">
-        <v>20</v>
-      </c>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33">
-        <v>5</v>
-      </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG28" s="33" t="s">
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI28" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="AH28" s="33" t="s">
+      <c r="AJ28" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33" t="s">
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="34" t="s">
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="AM28" s="33" t="s">
+      <c r="AO28" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B29" s="33" t="s">
-        <v>346</v>
+        <v>682</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>336</v>
+        <v>629</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E29" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33">
-        <v>2007</v>
-      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="I29" s="33">
-        <v>2005</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33" t="s">
-        <v>345</v>
-      </c>
+        <v>1995</v>
+      </c>
+      <c r="J29" s="33">
+        <v>1997</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L29" s="33"/>
       <c r="M29" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33">
+        <v>630</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>30</v>
+      </c>
+      <c r="R29" s="33">
+        <v>30</v>
+      </c>
+      <c r="S29" s="41"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33">
         <v>6</v>
       </c>
-      <c r="P29" s="33">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33">
-        <v>6</v>
-      </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
@@ -33637,85 +33939,93 @@
       <c r="AB29" s="33"/>
       <c r="AC29" s="33"/>
       <c r="AD29" s="33"/>
-      <c r="AE29" s="33" t="s">
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="AF29" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG29" s="33" t="s">
+      <c r="AH29" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI29" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH29" s="33" t="s">
+      <c r="AJ29" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33" t="s">
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="AK29" s="33" t="s">
+      <c r="AM29" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="AL29" s="33" t="s">
+      <c r="AN29" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="AM29" s="33"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO29" s="33"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>120</v>
+        <v>683</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E30" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33">
-        <v>1990</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="33">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="I30" s="33">
-        <v>1988</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33" t="s">
-        <v>116</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="J30" s="33">
+        <v>2000</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33">
-        <v>35</v>
-      </c>
-      <c r="P30" s="33">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="41"/>
+        <v>140</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>60</v>
+      </c>
       <c r="R30" s="33">
-        <v>35</v>
-      </c>
-      <c r="S30" s="33">
-        <v>40</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="S30" s="41"/>
       <c r="T30" s="33">
         <v>35</v>
       </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
+      <c r="U30" s="33">
+        <v>40</v>
+      </c>
+      <c r="V30" s="33">
+        <v>35</v>
+      </c>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
@@ -33724,85 +34034,95 @@
       <c r="AB30" s="33"/>
       <c r="AC30" s="33"/>
       <c r="AD30" s="33"/>
-      <c r="AE30" s="33" t="s">
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="AF30" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG30" s="33" t="s">
+      <c r="AH30" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI30" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH30" s="33" t="s">
+      <c r="AJ30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AI30" s="33" t="s">
+      <c r="AK30" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AJ30" s="33" t="s">
+      <c r="AL30" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AK30" s="33" t="s">
+      <c r="AM30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AL30" s="34" t="s">
+      <c r="AN30" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="AM30" s="33"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO30" s="33"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>120</v>
+        <v>684</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E31" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33">
-        <v>1990</v>
-      </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="33">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="I31" s="33">
-        <v>1988</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33" t="s">
-        <v>116</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="J31" s="33">
+        <v>2006</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L31" s="33"/>
       <c r="M31" s="33" t="s">
-        <v>671</v>
+        <v>248</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="41"/>
+        <v>693</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>30</v>
+      </c>
       <c r="R31" s="33">
-        <v>35</v>
-      </c>
-      <c r="S31" s="33">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="S31" s="41"/>
       <c r="T31" s="33">
         <v>35</v>
       </c>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
+      <c r="U31" s="33">
+        <v>40</v>
+      </c>
+      <c r="V31" s="33">
+        <v>35</v>
+      </c>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
@@ -33811,76 +34131,84 @@
       <c r="AB31" s="33"/>
       <c r="AC31" s="33"/>
       <c r="AD31" s="33"/>
-      <c r="AE31" s="33" t="s">
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="AF31" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG31" s="33" t="s">
+      <c r="AH31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI31" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH31" s="33" t="s">
+      <c r="AJ31" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AI31" s="33" t="s">
+      <c r="AK31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AJ31" s="33" t="s">
+      <c r="AL31" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AK31" s="33" t="s">
+      <c r="AM31" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AL31" s="34" t="s">
+      <c r="AN31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="AM31" s="33"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO31" s="33"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>413</v>
+        <v>599</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="E32" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33">
-        <v>2002</v>
-      </c>
+      <c r="G32" s="33"/>
       <c r="H32" s="33">
-        <v>1984</v>
+        <v>2024</v>
       </c>
       <c r="I32" s="33">
-        <v>1994</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>671</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="J32" s="33">
+        <v>2019</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
+        <v>693</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>20</v>
+      </c>
+      <c r="R32" s="33">
+        <v>20</v>
+      </c>
+      <c r="S32" s="41"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
       <c r="V32" s="33"/>
@@ -33891,63 +34219,75 @@
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
       <c r="AC32" s="33"/>
-      <c r="AD32" s="33" t="s">
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
       <c r="AG32" s="33"/>
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
-      <c r="AJ32" s="33" t="s">
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="34" t="s">
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="AM32" s="33"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO32" s="33"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>89</v>
+        <v>599</v>
       </c>
       <c r="C33" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="33" t="s">
-        <v>76</v>
-      </c>
       <c r="E33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="33">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="33" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="33">
+        <v>2024</v>
+      </c>
+      <c r="I33" s="33">
+        <v>2009</v>
+      </c>
+      <c r="J33" s="33">
+        <v>2019</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="P33" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
+      <c r="Q33" s="33">
+        <v>20</v>
+      </c>
+      <c r="R33" s="33">
+        <v>20</v>
+      </c>
+      <c r="S33" s="41"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
@@ -33960,309 +34300,345 @@
       <c r="AC33" s="33"/>
       <c r="AD33" s="33"/>
       <c r="AE33" s="33"/>
-      <c r="AF33" s="33" t="s">
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AG33" s="33" t="s">
+      <c r="AI33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH33" s="33" t="s">
+      <c r="AJ33" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AI33" s="33" t="s">
+      <c r="AK33" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AJ33" s="33" t="s">
+      <c r="AL33" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AK33" s="33" t="s">
+      <c r="AM33" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AL33" s="33" t="s">
+      <c r="AN33" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AM33" s="33"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO33" s="33"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>640</v>
+        <v>290</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>413</v>
+        <v>290</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>414</v>
+        <v>92</v>
       </c>
       <c r="E34" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33">
-        <v>2011</v>
-      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="33">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="I34" s="33">
-        <v>2003</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33" t="s">
-        <v>418</v>
-      </c>
+        <v>1996</v>
+      </c>
+      <c r="J34" s="33">
+        <v>2006</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L34" s="33"/>
       <c r="M34" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33">
+        <v>298</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="33">
         <v>2.5</v>
       </c>
-      <c r="P34" s="33">
+      <c r="U34" s="33">
         <v>17.7</v>
       </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="S34" s="33">
-        <v>17.7</v>
-      </c>
-      <c r="T34" s="33">
+      <c r="V34" s="33">
         <v>2.6</v>
       </c>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
-      <c r="AB34" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="AC34" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
       <c r="AD34" s="33">
         <v>3.9</v>
       </c>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
+      <c r="AE34" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF34" s="33">
+        <v>3.9</v>
+      </c>
       <c r="AG34" s="33"/>
       <c r="AH34" s="33"/>
-      <c r="AI34" s="33" t="s">
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="AJ34" s="33" t="s">
+      <c r="AL34" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="34" t="s">
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="AM34" s="33"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>662</v>
-      </c>
+      <c r="AO34" s="33"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>413</v>
+        <v>597</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33">
-        <v>2011</v>
+        <v>172</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>676</v>
       </c>
       <c r="H35" s="33">
-        <v>1998</v>
-      </c>
-      <c r="I35" s="33">
-        <v>2004</v>
+        <v>2005</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>638</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33" t="s">
-        <v>418</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="L35" s="33"/>
       <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="33">
+      <c r="N35" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="33">
         <v>2.5</v>
       </c>
-      <c r="S35" s="33">
+      <c r="U35" s="33">
         <v>17.7</v>
       </c>
-      <c r="T35" s="33">
+      <c r="V35" s="33">
         <v>2.6</v>
       </c>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
-      <c r="AB35" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="AC35" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
       <c r="AD35" s="33">
         <v>3.9</v>
       </c>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
+      <c r="AE35" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF35" s="33">
+        <v>3.9</v>
+      </c>
       <c r="AG35" s="33"/>
       <c r="AH35" s="33"/>
-      <c r="AI35" s="33" t="s">
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="AJ35" s="33" t="s">
+      <c r="AL35" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="34" t="s">
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="AM35" s="33"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO35" s="33"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>640</v>
+        <v>89</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33">
-        <v>2011</v>
+        <v>76</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="H36" s="33">
-        <v>1994</v>
-      </c>
-      <c r="I36" s="33">
-        <v>2003</v>
+        <v>2000</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>638</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33" t="s">
-        <v>418</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="L36" s="33"/>
       <c r="M36" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="P36" s="33">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="33">
+        <v>84</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="33">
         <v>2.5</v>
       </c>
-      <c r="S36" s="33">
+      <c r="U36" s="33">
         <v>17.7</v>
       </c>
-      <c r="T36" s="33">
+      <c r="V36" s="33">
         <v>2.6</v>
       </c>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
-      <c r="AB36" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="AC36" s="33">
-        <v>20</v>
-      </c>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
       <c r="AD36" s="33">
         <v>3.9</v>
       </c>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
+      <c r="AE36" s="33">
+        <v>20</v>
+      </c>
+      <c r="AF36" s="33">
+        <v>3.9</v>
+      </c>
       <c r="AG36" s="33"/>
       <c r="AH36" s="33"/>
-      <c r="AI36" s="33" t="s">
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="AJ36" s="33" t="s">
+      <c r="AL36" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="34" t="s">
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="AM36" s="33"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
+      <c r="AO36" s="33"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F37" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="G37" s="37">
-        <v>1992</v>
-      </c>
-      <c r="H37" s="37" t="s">
+      <c r="G37" s="33"/>
+      <c r="H37" s="33">
+        <v>2011</v>
+      </c>
+      <c r="I37" s="33">
+        <v>1998</v>
+      </c>
+      <c r="J37" s="33">
+        <v>2004</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="N37" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
+      <c r="O37" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="42"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
@@ -34279,63 +34655,63 @@
       <c r="AG37" s="37"/>
       <c r="AH37" s="37"/>
       <c r="AI37" s="37"/>
-      <c r="AJ37" s="37" t="s">
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="AK37" s="37" t="s">
+      <c r="AM37" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="38"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B38" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33">
-        <v>1991</v>
-      </c>
-      <c r="H38" s="33">
-        <v>1987</v>
-      </c>
-      <c r="I38" s="33">
-        <v>1990</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33">
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="38"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="H38" s="37">
+        <v>1992</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P38" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33">
         <v>49</v>
       </c>
-      <c r="P38" s="33">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33">
-        <v>49</v>
-      </c>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
@@ -34344,70 +34720,82 @@
       <c r="AB38" s="33"/>
       <c r="AC38" s="33"/>
       <c r="AD38" s="33"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG38" s="33" t="s">
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH38" s="36" t="s">
+      <c r="AJ38" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33" t="s">
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="34" t="s">
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="AM38" s="33" t="s">
+      <c r="AO38" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B39" s="33" t="s">
         <v>401</v>
       </c>
       <c r="C39" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="E39" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="F39" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33">
+      <c r="G39" s="33"/>
+      <c r="H39" s="33">
         <v>1991</v>
       </c>
-      <c r="H39" s="33">
+      <c r="I39" s="33">
         <v>2006</v>
       </c>
-      <c r="I39" s="33">
+      <c r="J39" s="33">
         <v>2011</v>
       </c>
-      <c r="J39" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37" t="s">
+      <c r="K39" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37">
+      <c r="N39" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="S39" s="42"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37">
         <v>49</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
@@ -34416,53 +34804,55 @@
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG39" s="33" t="s">
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI39" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AH39" s="36" t="s">
+      <c r="AJ39" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33" t="s">
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="34" t="s">
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="AM39" s="33" t="s">
+      <c r="AO39" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="T45" s="31">
-        <f>MIN(AD36:AD36)</f>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="V45" s="31">
+        <f>MIN(AF36:AF36)</f>
         <v>3.9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM39">
-    <sortCondition ref="B1:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R45">
+    <sortCondition ref="N1:N45"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AL31" r:id="rId1" xr:uid="{F5F1A95F-F5B9-BE43-8F2A-5BADA7F6EAFD}"/>
-    <hyperlink ref="AL8" r:id="rId2" xr:uid="{1E91FD05-BA04-F845-9C50-0E92DC1F3EFC}"/>
-    <hyperlink ref="AL28" r:id="rId3" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{45647AB5-C99D-E948-A666-DBA131E5FCC8}"/>
-    <hyperlink ref="AL38" r:id="rId4" xr:uid="{59FF11FA-A1F9-FD4F-A8E6-A49B417D3EF5}"/>
-    <hyperlink ref="AL36" r:id="rId5" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{2018511C-5171-724F-B7C7-CC85AE2F325D}"/>
-    <hyperlink ref="AL32" r:id="rId6" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{973EE3E4-A4CE-9643-BD06-41598489C145}"/>
-    <hyperlink ref="AL39" r:id="rId7" xr:uid="{F0B5A085-F738-2E41-A64F-E5ED9C468CDB}"/>
-    <hyperlink ref="AL7" r:id="rId8" xr:uid="{12BE9E4D-846B-384D-85A2-075D82D73162}"/>
-    <hyperlink ref="AL27" r:id="rId9" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{81100D6B-884E-C644-BBE7-C1EB6C15B043}"/>
-    <hyperlink ref="AL26" r:id="rId10" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{E62C4944-A7A4-0046-98E3-90ECFAC34A12}"/>
-    <hyperlink ref="AL25" r:id="rId11" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{194335E9-54CA-884C-9A5F-A2542797378B}"/>
-    <hyperlink ref="AL30" r:id="rId12" xr:uid="{5E46DA37-7703-8848-B1CF-0FA941E97F9A}"/>
-    <hyperlink ref="AL34" r:id="rId13" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{9D15F4B2-42B8-7E4C-8647-9641323AAE0F}"/>
-    <hyperlink ref="AL35" r:id="rId14" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{2911B75E-348E-E74A-818C-292191CCEC03}"/>
+    <hyperlink ref="AN31" r:id="rId1" xr:uid="{F5F1A95F-F5B9-BE43-8F2A-5BADA7F6EAFD}"/>
+    <hyperlink ref="AN8" r:id="rId2" xr:uid="{1E91FD05-BA04-F845-9C50-0E92DC1F3EFC}"/>
+    <hyperlink ref="AN28" r:id="rId3" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{45647AB5-C99D-E948-A666-DBA131E5FCC8}"/>
+    <hyperlink ref="AN38" r:id="rId4" xr:uid="{59FF11FA-A1F9-FD4F-A8E6-A49B417D3EF5}"/>
+    <hyperlink ref="AN36" r:id="rId5" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{2018511C-5171-724F-B7C7-CC85AE2F325D}"/>
+    <hyperlink ref="AN32" r:id="rId6" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{973EE3E4-A4CE-9643-BD06-41598489C145}"/>
+    <hyperlink ref="AN39" r:id="rId7" xr:uid="{F0B5A085-F738-2E41-A64F-E5ED9C468CDB}"/>
+    <hyperlink ref="AN7" r:id="rId8" xr:uid="{12BE9E4D-846B-384D-85A2-075D82D73162}"/>
+    <hyperlink ref="AN27" r:id="rId9" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{81100D6B-884E-C644-BBE7-C1EB6C15B043}"/>
+    <hyperlink ref="AN26" r:id="rId10" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{E62C4944-A7A4-0046-98E3-90ECFAC34A12}"/>
+    <hyperlink ref="AN25" r:id="rId11" display="https://www.fisheries.noaa.gov/s3/2023-08/PCTC-Small-Entity-Compliance-Guide-FAQ.pdf" xr:uid="{194335E9-54CA-884C-9A5F-A2542797378B}"/>
+    <hyperlink ref="AN30" r:id="rId12" xr:uid="{5E46DA37-7703-8848-B1CF-0FA941E97F9A}"/>
+    <hyperlink ref="AN34" r:id="rId13" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{9D15F4B2-42B8-7E4C-8647-9641323AAE0F}"/>
+    <hyperlink ref="AN35" r:id="rId14" location=":~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." display="https://catchshareindicators.org/catch-shares-and-fisheries-overview/west-coast-groundfish/ - :~:text=Quota%20Allocation&amp;text=Limited%20entry%20trawl%20permit%20owners,of%20the%20Pacific%20whiting%20QS." xr:uid="{2911B75E-348E-E74A-818C-292191CCEC03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
